--- a/public/template_level.xlsx
+++ b/public/template_level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS_2024\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA7F3B74-091B-4EFC-864C-6784B6360FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467105E3-3311-4A70-A155-069603AB8E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="3525" windowWidth="15390" windowHeight="7995" xr2:uid="{D09AD215-BC86-4372-8DB0-02BCDD1DE2F9}"/>
+    <workbookView xWindow="10125" yWindow="0" windowWidth="10365" windowHeight="10665" xr2:uid="{D09AD215-BC86-4372-8DB0-02BCDD1DE2F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,26 +408,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
